--- a/utils/labels.xlsx
+++ b/utils/labels.xlsx
@@ -31,16 +31,16 @@
     <t xml:space="preserve">sub_category</t>
   </si>
   <si>
-    <t xml:space="preserve">MAPILLARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIPER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYNTHIA_SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITYSCAPES_LABELS</t>
+    <t xml:space="preserve">MapillaryVistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayingForBenchmarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SynthiaSf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cityscapes</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -878,7 +878,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -907,10 +907,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -932,6 +928,18 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1007,21 +1015,19 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="9" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,11 +1078,11 @@
       <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -1103,11 +1109,11 @@
       <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -1134,11 +1140,11 @@
       <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -1165,11 +1171,11 @@
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -1196,11 +1202,11 @@
       <c r="H6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -1227,11 +1233,11 @@
       <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -1258,11 +1264,11 @@
       <c r="H8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -1289,11 +1295,11 @@
       <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -1320,11 +1326,11 @@
       <c r="H10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -1351,11 +1357,11 @@
       <c r="H11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -1382,11 +1388,11 @@
       <c r="H12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -1413,11 +1419,11 @@
       <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
@@ -1444,11 +1450,11 @@
       <c r="H14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
@@ -1475,11 +1481,11 @@
       <c r="H15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -1506,11 +1512,11 @@
       <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
@@ -1537,11 +1543,11 @@
       <c r="H17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
@@ -1568,11 +1574,11 @@
       <c r="H18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -1599,11 +1605,11 @@
       <c r="H19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
@@ -1630,11 +1636,11 @@
       <c r="H20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
@@ -1661,11 +1667,11 @@
       <c r="H21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -1692,11 +1698,11 @@
       <c r="H22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -1723,11 +1729,11 @@
       <c r="H23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -1754,11 +1760,11 @@
       <c r="H24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
@@ -1785,11 +1791,11 @@
       <c r="H25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
@@ -1816,11 +1822,11 @@
       <c r="H26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
@@ -1847,11 +1853,11 @@
       <c r="H27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
@@ -1878,11 +1884,11 @@
       <c r="H28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
@@ -1909,11 +1915,11 @@
       <c r="H29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
@@ -1940,11 +1946,11 @@
       <c r="H30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
@@ -1971,11 +1977,11 @@
       <c r="H31" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
@@ -2002,11 +2008,11 @@
       <c r="H32" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
@@ -2033,11 +2039,11 @@
       <c r="H33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
@@ -2064,11 +2070,11 @@
       <c r="H34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
@@ -2095,11 +2101,11 @@
       <c r="H35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
@@ -2126,11 +2132,11 @@
       <c r="H36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
@@ -2157,11 +2163,11 @@
       <c r="H37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
@@ -2188,11 +2194,11 @@
       <c r="H38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
@@ -2219,11 +2225,11 @@
       <c r="H39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
@@ -2250,11 +2256,11 @@
       <c r="H40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
@@ -2281,11 +2287,11 @@
       <c r="H41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
@@ -2312,11 +2318,11 @@
       <c r="H42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
@@ -2343,11 +2349,11 @@
       <c r="H43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
@@ -2374,11 +2380,11 @@
       <c r="H44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
@@ -2405,11 +2411,11 @@
       <c r="H45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
@@ -2436,11 +2442,11 @@
       <c r="H46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
@@ -2467,11 +2473,11 @@
       <c r="H47" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
@@ -2498,11 +2504,11 @@
       <c r="H48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
@@ -2529,11 +2535,11 @@
       <c r="H49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
@@ -2560,11 +2566,11 @@
       <c r="H50" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
@@ -2591,11 +2597,11 @@
       <c r="H51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
@@ -2622,11 +2628,11 @@
       <c r="H52" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
@@ -2653,11 +2659,11 @@
       <c r="H53" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
@@ -2684,11 +2690,11 @@
       <c r="H54" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
@@ -2706,7 +2712,7 @@
       <c r="E55" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>187</v>
       </c>
       <c r="G55" s="6" t="s">
@@ -2715,11 +2721,11 @@
       <c r="H55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
@@ -2746,11 +2752,11 @@
       <c r="H56" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
@@ -2777,11 +2783,11 @@
       <c r="H57" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
@@ -2808,11 +2814,11 @@
       <c r="H58" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -2839,11 +2845,11 @@
       <c r="H59" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
@@ -2870,11 +2876,11 @@
       <c r="H60" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
@@ -2901,11 +2907,11 @@
       <c r="H61" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
@@ -2932,11 +2938,11 @@
       <c r="H62" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
@@ -2963,11 +2969,11 @@
       <c r="H63" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
@@ -2994,11 +3000,11 @@
       <c r="H64" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
@@ -3025,11 +3031,11 @@
       <c r="H65" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
@@ -3056,11 +3062,11 @@
       <c r="H66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
@@ -3087,11 +3093,11 @@
       <c r="H67" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
@@ -3118,17 +3124,17 @@
       <c r="H68" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3149,11 +3155,11 @@
       <c r="H69" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
@@ -3180,17 +3186,17 @@
       <c r="H70" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -3211,17 +3217,17 @@
       <c r="H71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>238</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3242,17 +3248,17 @@
       <c r="H72" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>241</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3273,17 +3279,17 @@
       <c r="H73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>244</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3304,17 +3310,17 @@
       <c r="H74" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>247</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3335,17 +3341,17 @@
       <c r="H75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>250</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3366,14 +3372,14 @@
       <c r="H76" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="10"/>
+      <c r="B77" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M76">
